--- a/r.xlsx
+++ b/r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>4 cat</t>
   </si>
@@ -31,22 +31,193 @@
     <t>Italy v Uruguay</t>
   </si>
   <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://tickets.rugbyworldcup.com/en/resale_italy_uruguay</t>
-    </r>
-  </si>
-  <si>
-    <t/>
+    <t>https://tickets.rugbyworldcup.com/en/resale_italy_uruguay</t>
+  </si>
+  <si>
+    <t>France v Namibia</t>
+  </si>
+  <si>
+    <t>http://tickets.rugbyworldcup.com/en/resale_france_namibia</t>
+  </si>
+  <si>
+    <t>Argentina v Samoa</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_argentina_samoa</t>
+  </si>
+  <si>
+    <t>Georgia v Portugal</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_georgia_portugal</t>
+  </si>
+  <si>
+    <t>England v Chile</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_england_chile</t>
+  </si>
+  <si>
+    <t>South Africa v Ireland</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_south_africa_ireland</t>
+  </si>
+  <si>
+    <t>Scotland v Tonga</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_scotland_tonga</t>
+  </si>
+  <si>
+    <t>Wales v Australia</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_wales_australia</t>
+  </si>
+  <si>
+    <t>Uruguay v Namibia</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_uruguay_namibia</t>
+  </si>
+  <si>
+    <t>Japan v Samoa</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_japan_samoa</t>
+  </si>
+  <si>
+    <t>New Zealand v Italy</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_new_zealand_italy</t>
+  </si>
+  <si>
+    <t>Argentina v Chile</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_argentina_chile</t>
+  </si>
+  <si>
+    <t>Fiji v Georgia</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_fiji_georgia</t>
+  </si>
+  <si>
+    <t>Scotland v Romania</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_scotland_romania</t>
+  </si>
+  <si>
+    <t>Australia v Portugal</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_australia_portugal</t>
+  </si>
+  <si>
+    <t>South Africa v Tonga</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_south_africa_tonga</t>
+  </si>
+  <si>
+    <t>New Zealand v Uruguay</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_new_zeland_uruguay</t>
+  </si>
+  <si>
+    <t>France v Italy</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_france_italy</t>
+  </si>
+  <si>
+    <t>Wales v Georgia</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_wales_georgia</t>
+  </si>
+  <si>
+    <t>England v Samoa</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_england_samoa</t>
+  </si>
+  <si>
+    <t>Ireland v Scotland</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_ireland_scotland</t>
+  </si>
+  <si>
+    <t>Japan v Argentina</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_japan_argentina</t>
+  </si>
+  <si>
+    <t>Tonga v Romania</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_tonga_romania</t>
+  </si>
+  <si>
+    <t>Fiji v Portugal</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_fiji_portugal</t>
+  </si>
+  <si>
+    <t>Winner Pool C v Runner-Up Pool D</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_quarter_final1</t>
+  </si>
+  <si>
+    <t>Winner Pool B v Runner-Up Pool A</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_quarter_final2</t>
+  </si>
+  <si>
+    <t>Winner Pool D v Runner-Up Pool C</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_quarter_final3</t>
+  </si>
+  <si>
+    <t>Winner Pool A v Runner-Up Pool B</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_quarter_final4</t>
+  </si>
+  <si>
+    <t>Winner QF1 v Winner QF2</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_semi_final1</t>
+  </si>
+  <si>
+    <t>Winner QF3 v Winner QF4</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_semi_final2</t>
+  </si>
+  <si>
+    <t>Runner-Up SF1 v Runner-Up SF2</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_bronze_final</t>
+  </si>
+  <si>
+    <t>Winner SF1 v Winner SF2</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_final</t>
   </si>
 </sst>
 </file>
@@ -168,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -200,20 +371,14 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -529,13 +694,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="62.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="62.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -565,527 +730,569 @@
         <v>4</v>
       </c>
       <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9">
-        <v>4</v>
-      </c>
-      <c r="E2" s="9">
-        <v>2</v>
-      </c>
-      <c r="F2" s="9">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="12" t="s">
-        <v>6</v>
+      <c r="G3" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
-      <c r="B4" s="11" t="s">
-        <v>6</v>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="12" t="s">
-        <v>6</v>
+      <c r="G4" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="11" t="s">
-        <v>6</v>
+      <c r="B5" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="12" t="s">
-        <v>6</v>
+      <c r="G5" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="11" t="s">
-        <v>6</v>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="12" t="s">
-        <v>6</v>
+      <c r="G6" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2</v>
+      </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="12" t="s">
-        <v>6</v>
+      <c r="G7" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9"/>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="12" t="s">
-        <v>6</v>
+      <c r="G8" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9"/>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
+      <c r="G9" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="11" t="s">
-        <v>6</v>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="164.25">
+      <c r="G10" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="11" t="s">
-        <v>6</v>
+      <c r="B11" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="177">
+      <c r="G11" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="9"/>
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="177">
+      <c r="G12" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
-      <c r="B13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="9"/>
+      <c r="B13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="164.25">
+      <c r="G13" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="11" t="s">
-        <v>6</v>
+      <c r="B14" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="177">
+      <c r="G14" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="11" t="s">
-        <v>6</v>
+      <c r="B15" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="164.25">
+      <c r="G15" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="11" t="s">
-        <v>6</v>
+      <c r="B16" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="164.25">
+      <c r="G16" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="11" t="s">
-        <v>6</v>
+      <c r="B17" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="164.25">
+      <c r="G17" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="11" t="s">
-        <v>6</v>
+      <c r="B18" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="164.25">
+      <c r="G18" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
-      <c r="B19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="9"/>
+      <c r="B19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="164.25">
+      <c r="G19" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
-      <c r="B20" s="11" t="s">
-        <v>6</v>
+      <c r="B20" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="164.25">
+      <c r="G20" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
-      <c r="B21" s="11" t="s">
-        <v>6</v>
+      <c r="B21" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="150.75">
+      <c r="G21" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="177">
+      <c r="G22" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2</v>
+      </c>
+      <c r="D23" s="9">
+        <v>2</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="177">
+      <c r="G23" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="22.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="11" t="s">
-        <v>6</v>
+      <c r="B24" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="12" t="s">
-        <v>6</v>
+      <c r="G24" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1"/>
-      <c r="B25" s="11" t="s">
-        <v>6</v>
+      <c r="B25" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="12" t="s">
-        <v>6</v>
+      <c r="G25" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
       <c r="A26" s="1"/>
-      <c r="B26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="9">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9">
+        <v>2</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="13" t="s">
-        <v>6</v>
+      <c r="G26" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
       <c r="A27" s="1"/>
-      <c r="B27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="13" t="s">
-        <v>6</v>
+      <c r="B27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
       <c r="A28" s="1"/>
-      <c r="B28" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="9">
+        <v>2</v>
+      </c>
+      <c r="D28" s="9">
+        <v>2</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="13" t="s">
-        <v>6</v>
+      <c r="G28" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
       <c r="A29" s="1"/>
-      <c r="B29" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="13" t="s">
-        <v>6</v>
+      <c r="B29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="1"/>
-      <c r="B30" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="12" t="s">
-        <v>6</v>
+      <c r="B30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9">
+        <v>2</v>
+      </c>
+      <c r="F30" s="9">
+        <v>2</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
       <c r="A31" s="1"/>
-      <c r="B31" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="12" t="s">
-        <v>6</v>
+      <c r="B31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9">
+        <v>2</v>
+      </c>
+      <c r="F31" s="9">
+        <v>2</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
       <c r="A32" s="1"/>
-      <c r="B32" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="12" t="s">
-        <v>6</v>
+      <c r="B32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9">
+        <v>2</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
       <c r="A33" s="1"/>
-      <c r="B33" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="12" t="s">
-        <v>6</v>
+      <c r="B33" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
       <c r="A34" s="1"/>
-      <c r="B34" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="13" t="s">
-        <v>6</v>
-      </c>
+      <c r="G34" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
       <c r="A35" s="1"/>
-      <c r="B35" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="13" t="s">
-        <v>6</v>
-      </c>
+      <c r="G35" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
       <c r="A36" s="1"/>
-      <c r="B36" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="B36" s="8"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="13" t="s">
-        <v>6</v>
-      </c>
+      <c r="G36" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
       <c r="A37" s="1"/>
-      <c r="B37" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="13" t="s">
-        <v>6</v>
-      </c>
+      <c r="G37" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
       <c r="A38" s="1"/>
-      <c r="B38" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="B38" s="8"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="G38" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
       <c r="A39" s="1"/>
-      <c r="B39" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="B39" s="8"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="G39" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
       <c r="A40" s="1"/>
-      <c r="B40" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="B40" s="8"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="G40" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
       <c r="A41" s="1"/>
-      <c r="B41" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="B41" s="8"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="G41" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/r.xlsx
+++ b/r.xlsx
@@ -1,41 +1,176 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\rugby-bot-resale\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBDF42C-E12A-441A-82F1-A7FC4ABF5AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1290" yWindow="1650" windowWidth="11745" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4 cat</t>
+  </si>
+  <si>
+    <t>3 cat</t>
+  </si>
+  <si>
+    <t>2 cat</t>
+  </si>
+  <si>
+    <t>1 cat</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Winner Pool C v Runner-Up Pool D</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_quarter_final1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Winner Pool B v Runner-Up Pool A</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_quarter_final2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Winner Pool D v Runner-Up Pool C</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_quarter_final3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Winner Pool A v Runner-Up Pool B</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_quarter_final4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Winner QF1 v Winner QF2</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_semi_final1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Winner QF3 v Winner QF4</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_semi_final2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Runner-Up SF1 v Runner-Up SF2</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_bronze_final</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Winner SF1 v Winner SF2</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_final</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +200,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,287 +539,258 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="str">
-        <v>4 cat</v>
-      </c>
-      <c r="D1" t="str">
-        <v>3 cat</v>
-      </c>
-      <c r="E1" t="str">
-        <v>2 cat</v>
-      </c>
-      <c r="F1" t="str">
-        <v>1 cat</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>2</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Winner Pool C v Runner-Up Pool D</v>
-      </c>
-      <c r="C2" t="str">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="D2" t="str">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="E2" t="str">
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="G2" t="str">
-        <v>https://tickets.rugbyworldcup.com/en/resale_quarter_final1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>3</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Winner Pool B v Runner-Up Pool A</v>
-      </c>
-      <c r="E3" t="str">
-        <v>1</v>
-      </c>
-      <c r="F3" t="str">
-        <v>1</v>
-      </c>
-      <c r="G3" t="str">
-        <v>https://tickets.rugbyworldcup.com/en/resale_quarter_final2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>4</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Winner Pool D v Runner-Up Pool C</v>
-      </c>
-      <c r="G4" t="str">
-        <v>https://tickets.rugbyworldcup.com/en/resale_quarter_final3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>5</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Winner Pool A v Runner-Up Pool B</v>
-      </c>
-      <c r="E5" t="str">
-        <v>1</v>
-      </c>
-      <c r="F5" t="str">
-        <v>1</v>
-      </c>
-      <c r="G5" t="str">
-        <v>https://tickets.rugbyworldcup.com/en/resale_quarter_final4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>6</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Winner QF1 v Winner QF2</v>
-      </c>
-      <c r="C6" t="str">
-        <v>1</v>
-      </c>
-      <c r="D6" t="str">
-        <v>1</v>
-      </c>
-      <c r="E6" t="str">
-        <v>1</v>
-      </c>
-      <c r="F6" t="str">
-        <v>1</v>
-      </c>
-      <c r="G6" t="str">
-        <v>https://tickets.rugbyworldcup.com/en/resale_semi_final1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>7</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Winner QF3 v Winner QF4</v>
-      </c>
-      <c r="C7" t="str">
-        <v>1</v>
-      </c>
-      <c r="D7" t="str">
-        <v>1</v>
-      </c>
-      <c r="E7" t="str">
-        <v>1</v>
-      </c>
-      <c r="F7" t="str">
-        <v>1</v>
-      </c>
-      <c r="G7" t="str">
-        <v>https://tickets.rugbyworldcup.com/en/resale_semi_final2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>8</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Runner-Up SF1 v Runner-Up SF2</v>
-      </c>
-      <c r="C8" t="str">
-        <v>1</v>
-      </c>
-      <c r="D8" t="str">
-        <v>1</v>
-      </c>
-      <c r="E8" t="str">
-        <v>1</v>
-      </c>
-      <c r="F8" t="str">
-        <v>1</v>
-      </c>
-      <c r="G8" t="str">
-        <v>https://tickets.rugbyworldcup.com/en/resale_bronze_final</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>9</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Winner SF1 v Winner SF2</v>
-      </c>
-      <c r="C9" t="str">
-        <v>1</v>
-      </c>
-      <c r="D9" t="str">
-        <v>1</v>
-      </c>
-      <c r="E9" t="str">
-        <v>1</v>
-      </c>
-      <c r="F9" t="str">
-        <v>1</v>
-      </c>
-      <c r="G9" t="str">
-        <v>https://tickets.rugbyworldcup.com/en/resale_final</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="str">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="str">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G28"/>
+    <ignoredError sqref="A1:B1 A4:G4 A2:B2 G2 A3:D3 G3 A8:G28 A5:D5 G5 A6:B6 G6 A7:B7 G7 G1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/r.xlsx
+++ b/r.xlsx
@@ -1,41 +1,176 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\rugby-bot-resale\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBDF42C-E12A-441A-82F1-A7FC4ABF5AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1290" yWindow="1650" windowWidth="11745" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4 cat</t>
+  </si>
+  <si>
+    <t>3 cat</t>
+  </si>
+  <si>
+    <t>2 cat</t>
+  </si>
+  <si>
+    <t>1 cat</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Winner Pool C v Runner-Up Pool D</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_quarter_final1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Winner Pool B v Runner-Up Pool A</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_quarter_final2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Winner Pool D v Runner-Up Pool C</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_quarter_final3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Winner Pool A v Runner-Up Pool B</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_quarter_final4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Winner QF1 v Winner QF2</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_semi_final1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Winner QF3 v Winner QF4</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_semi_final2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Runner-Up SF1 v Runner-Up SF2</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_bronze_final</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Winner SF1 v Winner SF2</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/resale_final</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +200,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,344 +539,258 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="str">
-        <v>4 cat</v>
-      </c>
-      <c r="D1" t="str">
-        <v>3 cat</v>
-      </c>
-      <c r="E1" t="str">
-        <v>2 cat</v>
-      </c>
-      <c r="F1" t="str">
-        <v>1 cat</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="str">
-        <v>South Africa v Ireland</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="str">
-        <v>Scotland v Tonga</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="str">
-        <v>Wales v Australia</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="str">
-        <v>Uruguay v Namibia</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="str">
-        <v>Japan v Samoa</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="str">
-        <v>New Zealand v Italy</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="str">
-        <v>Argentina v Chile</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="str">
-        <v>Fiji v Georgia</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="str">
-        <v>Scotland v Romania</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="str">
-        <v>Australia v Portugal</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="str">
-        <v>South Africa v Tonga</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="str">
-        <v>New Zealand v Uruguay</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="str">
-        <v>France v Italy</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="str">
-        <v>Wales v Georgia</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="str">
-        <v>England v Samoa</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="str">
-        <v>Ireland v Scotland</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B18" t="str">
-        <v>Japan v Argentina</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B19" t="str">
-        <v>Tonga v Romania</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="str">
-        <v>Fiji v Portugal</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="str">
-        <v>Winner Pool C v Runner-Up Pool D</v>
-      </c>
-      <c r="C21" t="str">
-        <v>1</v>
-      </c>
-      <c r="D21" t="str">
-        <v>1</v>
-      </c>
-      <c r="E21" t="str">
-        <v>1</v>
-      </c>
-      <c r="F21" t="str">
-        <v>1</v>
-      </c>
-      <c r="G21" t="str">
-        <v>https://tickets.rugbyworldcup.com/en/resale_quarter_final1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="str">
-        <v>Winner Pool B v Runner-Up Pool A</v>
-      </c>
-      <c r="E22" t="str">
-        <v>1</v>
-      </c>
-      <c r="F22" t="str">
-        <v>1</v>
-      </c>
-      <c r="G22" t="str">
-        <v>https://tickets.rugbyworldcup.com/en/resale_quarter_final2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="str">
-        <v>Winner Pool D v Runner-Up Pool C</v>
-      </c>
-      <c r="G23" t="str">
-        <v>https://tickets.rugbyworldcup.com/en/resale_quarter_final3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="str">
-        <v>Winner Pool A v Runner-Up Pool B</v>
-      </c>
-      <c r="E24" t="str">
-        <v>1</v>
-      </c>
-      <c r="F24" t="str">
-        <v>1</v>
-      </c>
-      <c r="G24" t="str">
-        <v>https://tickets.rugbyworldcup.com/en/resale_quarter_final4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="B25" t="str">
-        <v>Winner QF1 v Winner QF2</v>
-      </c>
-      <c r="C25" t="str">
-        <v>1</v>
-      </c>
-      <c r="D25" t="str">
-        <v>1</v>
-      </c>
-      <c r="E25" t="str">
-        <v>1</v>
-      </c>
-      <c r="F25" t="str">
-        <v>1</v>
-      </c>
-      <c r="G25" t="str">
-        <v>https://tickets.rugbyworldcup.com/en/resale_semi_final1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>47</v>
       </c>
-      <c r="B26" t="str">
-        <v>Winner QF3 v Winner QF4</v>
-      </c>
-      <c r="C26" t="str">
-        <v>1</v>
-      </c>
-      <c r="D26" t="str">
-        <v>1</v>
-      </c>
-      <c r="E26" t="str">
-        <v>1</v>
-      </c>
-      <c r="F26" t="str">
-        <v>1</v>
-      </c>
-      <c r="G26" t="str">
-        <v>https://tickets.rugbyworldcup.com/en/resale_semi_final2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>48</v>
-      </c>
-      <c r="B27" t="str">
-        <v>Runner-Up SF1 v Runner-Up SF2</v>
-      </c>
-      <c r="C27" t="str">
-        <v>1</v>
-      </c>
-      <c r="D27" t="str">
-        <v>1</v>
-      </c>
-      <c r="E27" t="str">
-        <v>1</v>
-      </c>
-      <c r="F27" t="str">
-        <v>1</v>
-      </c>
-      <c r="G27" t="str">
-        <v>https://tickets.rugbyworldcup.com/en/resale_bronze_final</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>49</v>
-      </c>
-      <c r="B28" t="str">
-        <v>Winner SF1 v Winner SF2</v>
-      </c>
-      <c r="C28" t="str">
-        <v>1</v>
-      </c>
-      <c r="D28" t="str">
-        <v>1</v>
-      </c>
-      <c r="E28" t="str">
-        <v>1</v>
-      </c>
-      <c r="F28" t="str">
-        <v>1</v>
-      </c>
-      <c r="G28" t="str">
-        <v>https://tickets.rugbyworldcup.com/en/resale_final</v>
-      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G28"/>
+    <ignoredError sqref="A1:B1 A4:G4 A2:B2 G2 A3:D3 G3 A8:G28 A5:D5 G5 A6:B6 G6 A7:B7 G7 G1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>